--- a/cfs_6_0.25.xlsx
+++ b/cfs_6_0.25.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.641</v>
+        <v>0.655</v>
       </c>
       <c r="C2" t="n">
         <v>0.7</v>
@@ -536,7 +536,7 @@
         <v>0.639</v>
       </c>
       <c r="J2" t="n">
-        <v>0.388</v>
+        <v>0.501</v>
       </c>
       <c r="K2" t="n">
         <v>0.556</v>
@@ -582,13 +582,13 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.237</v>
+        <v>0.368</v>
       </c>
       <c r="K3" t="n">
         <v>0.44</v>
       </c>
       <c r="L3" t="n">
-        <v>0.389</v>
+        <v>0.447</v>
       </c>
       <c r="M3" t="n">
         <v>5.855072463768116</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.538</v>
+        <v>0.605</v>
       </c>
       <c r="C4" t="n">
         <v>0.68</v>
@@ -622,7 +622,7 @@
         <v>0.734</v>
       </c>
       <c r="H4" t="n">
-        <v>0.321</v>
+        <v>0.394</v>
       </c>
       <c r="I4" t="n">
         <v>0.5629999999999999</v>
@@ -674,7 +674,7 @@
         <v>0.551</v>
       </c>
       <c r="J5" t="n">
-        <v>0.278</v>
+        <v>0.322</v>
       </c>
       <c r="K5" t="n">
         <v>0.417</v>
@@ -711,7 +711,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.657</v>
+        <v>0.723</v>
       </c>
       <c r="H6" t="n">
         <v>0.404</v>
@@ -723,7 +723,7 @@
         <v>0.446</v>
       </c>
       <c r="K6" t="n">
-        <v>0.468</v>
+        <v>0.496</v>
       </c>
       <c r="L6" t="n">
         <v>0.475</v>
@@ -794,7 +794,7 @@
         <v>0.657</v>
       </c>
       <c r="D8" t="n">
-        <v>0.515</v>
+        <v>0.487</v>
       </c>
       <c r="E8" t="n">
         <v>0.596</v>
@@ -818,7 +818,7 @@
         <v>0.465</v>
       </c>
       <c r="L8" t="n">
-        <v>0.497</v>
+        <v>0.471</v>
       </c>
       <c r="M8" t="n">
         <v>2.60377358490566</v>
@@ -849,7 +849,7 @@
         <v>0.601</v>
       </c>
       <c r="G9" t="n">
-        <v>0.72</v>
+        <v>0.744</v>
       </c>
       <c r="H9" t="n">
         <v>0.395</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.748</v>
+        <v>0.671</v>
       </c>
       <c r="C13" t="n">
         <v>0.679</v>
@@ -1048,7 +1048,7 @@
         <v>0.458</v>
       </c>
       <c r="L13" t="n">
-        <v>0.518</v>
+        <v>0.447</v>
       </c>
       <c r="M13" t="n">
         <v>3.8125</v>
@@ -2677,7 +2677,7 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.714</v>
+        <v>0.588</v>
       </c>
       <c r="D49" t="n">
         <v>0.412</v>
@@ -3296,7 +3296,7 @@
         <v>0.532</v>
       </c>
       <c r="J62" t="n">
-        <v>0.352</v>
+        <v>0.5</v>
       </c>
       <c r="K62" t="n">
         <v>0.464</v>
@@ -3425,7 +3425,7 @@
         <v>0.592</v>
       </c>
       <c r="G65" t="n">
-        <v>0.627</v>
+        <v>0.74</v>
       </c>
       <c r="H65" t="n">
         <v>0.39</v>
@@ -3437,7 +3437,7 @@
         <v>0.379</v>
       </c>
       <c r="K65" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="L65" t="n">
         <v>0.447</v>
@@ -3563,7 +3563,7 @@
         <v>0.496</v>
       </c>
       <c r="G68" t="n">
-        <v>0.602</v>
+        <v>0.627</v>
       </c>
       <c r="H68" t="n">
         <v>0.362</v>
@@ -3575,7 +3575,7 @@
         <v>0.325</v>
       </c>
       <c r="K68" t="n">
-        <v>0.487</v>
+        <v>0.44</v>
       </c>
       <c r="L68" t="n">
         <v>0.419</v>
@@ -4170,7 +4170,7 @@
         <v>0.503</v>
       </c>
       <c r="J81" t="n">
-        <v>0.288</v>
+        <v>0.411</v>
       </c>
       <c r="K81" t="n">
         <v>0.4</v>
@@ -4308,7 +4308,7 @@
         <v>0.544</v>
       </c>
       <c r="J84" t="n">
-        <v>0.265</v>
+        <v>0.4</v>
       </c>
       <c r="K84" t="n">
         <v>0.376</v>
@@ -4492,10 +4492,10 @@
         <v>0.502</v>
       </c>
       <c r="J88" t="n">
-        <v>0.279</v>
+        <v>0.303</v>
       </c>
       <c r="K88" t="n">
-        <v>0.436</v>
+        <v>0.4</v>
       </c>
       <c r="L88" t="n">
         <v>0.404</v>
@@ -4523,7 +4523,7 @@
         <v>0.453</v>
       </c>
       <c r="E89" t="n">
-        <v>0.556</v>
+        <v>0.52</v>
       </c>
       <c r="F89" t="n">
         <v>0.516</v>
@@ -4535,7 +4535,7 @@
         <v>0.373</v>
       </c>
       <c r="I89" t="n">
-        <v>0.482</v>
+        <v>0.498</v>
       </c>
       <c r="J89" t="n">
         <v>0.279</v>
@@ -4722,7 +4722,7 @@
         <v>0.524</v>
       </c>
       <c r="J93" t="n">
-        <v>0.363</v>
+        <v>0.404</v>
       </c>
       <c r="K93" t="n">
         <v>0.5</v>
@@ -4897,7 +4897,7 @@
         <v>0.581</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="H97" t="n">
         <v>0.315</v>
@@ -5004,7 +5004,7 @@
         <v>0.422</v>
       </c>
       <c r="L99" t="n">
-        <v>0.414</v>
+        <v>0.401</v>
       </c>
       <c r="M99" t="n">
         <v>2.441176470588236</v>
@@ -5044,7 +5044,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="J100" t="n">
-        <v>0.332</v>
+        <v>0.38</v>
       </c>
       <c r="K100" t="n">
         <v>0.489</v>
